--- a/pred_ohlcv/54_21/2019-10-29 LRC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 LRC ohlcv.xlsx
@@ -652,7 +652,7 @@
         <v>80560.18405121943</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>89410.18405121943</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>87186.14145121943</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>83844.14155121944</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>83844.14155121944</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>83854.14155121944</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>74780.18355121944</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>64968.39315121944</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -886,7 +886,7 @@
         <v>41061.44255121944</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>32979.22585121944</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>23384.60775121944</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>38220.67845121944</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>44073.67845121944</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>38378.30685121944</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>33238.00765121944</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>51440.92075121944</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>42394.63675121944</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>43669.22095121944</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>49663.37755121944</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>49683.37755121944</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>49683.37755121944</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>49683.37755121944</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>49683.37755121944</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>45284.76475121944</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>45284.76475121944</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>45284.76475121944</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>45297.30235121944</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>68257.80139737329</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>80926.6746973733</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>162730.6746973733</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>162730.6746973733</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>169041.6135973733</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>169051.6135973733</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>198292.6135973733</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>228254.0660227392</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>248780.2960227392</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>248780.2960227392</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>266574.3539227392</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>260362.0389227392</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>282394.0389227392</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>248726.5244227392</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>248726.5244227392</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>248736.5244227392</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>247505.1814227392</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>237505.1814227392</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>237505.1814227392</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>225649.7413227392</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>226881.0843227392</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>233781.0843227392</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>270081.0843227392</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>291887.3805227391</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>662601.3155359032</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>655750.8967359032</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>649619.5574359032</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>585578.8554359032</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>660159.2061359031</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>672609.2061359031</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>668395.9409359031</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>714133.0921359031</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>707412.5548359031</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>692412.5548359031</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>691912.5548359031</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>678907.1994359031</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>671603.6190359031</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>664899.8830359031</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>665872.8064943936</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>665872.8064943936</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>644155.1831943936</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>622975.0033943936</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>622500.4783943936</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-29 LRC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 LRC ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>90942.36179999993</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -652,7 +652,7 @@
         <v>80560.18405121943</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>89410.18405121943</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>87186.14145121943</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>83844.14155121944</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>83844.14155121944</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>83854.14155121944</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>74780.18355121944</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>64968.39315121944</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>59907.81495121944</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>41061.44255121944</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>32979.22585121944</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>23384.60775121944</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>38220.67845121944</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>44073.67845121944</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>38378.30685121944</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>33238.00765121944</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>51440.92075121944</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>42394.63675121944</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>43669.22095121944</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>49663.37755121944</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>49683.37755121944</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>49683.37755121944</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>49683.37755121944</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>49683.37755121944</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>45284.76475121944</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>45284.76475121944</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>45284.76475121944</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>45297.30235121944</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>68257.80139737329</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>80926.6746973733</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>162730.6746973733</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>162730.6746973733</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>162730.6746973733</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>169041.6135973733</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>169051.6135973733</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>198292.6135973733</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>189772.6137973733</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>200835.5698973733</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>203279.4977227392</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>200922.6076227392</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>189873.6260227392</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>198277.3556227392</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>198277.3556227392</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>196818.8518227392</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>196818.8518227392</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>196818.8518227392</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>227254.0660227392</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>228254.0660227392</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>230980.2891227392</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>248780.2960227392</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>248780.2960227392</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>266574.3539227392</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>260362.0389227392</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>282394.0389227392</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>248726.5244227392</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>248726.5244227392</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>248736.5244227392</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>247505.1814227392</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>237505.1814227392</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>237505.1814227392</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>225649.7413227392</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>644837.8853227393</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>642387.9353227393</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>654315.8349227393</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>653150.3946227393</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>668917.0855359032</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>662601.3155359032</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>663338.1638359032</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>663733.4188359032</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>655750.8967359032</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>649619.5574359032</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>585578.8554359032</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>589509.2061359031</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>660159.2061359031</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>672609.2061359031</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>668395.9409359031</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>716430.3299359031</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>714133.0921359031</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>707412.5548359031</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>692412.5548359031</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>691912.5548359031</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>678907.1994359031</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>671603.6190359031</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>664899.8830359031</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>665872.8064943936</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>665872.8064943936</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>644155.1831943936</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>622975.0033943936</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
